--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1203.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1203.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7672548221482133</v>
+        <v>1.169334530830383</v>
       </c>
       <c r="B1">
-        <v>1.431197345100595</v>
+        <v>2.44109320640564</v>
       </c>
       <c r="C1">
-        <v>5.338900989450406</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.173115079972394</v>
+        <v>2.362691402435303</v>
       </c>
       <c r="E1">
-        <v>1.507373271903658</v>
+        <v>1.237056136131287</v>
       </c>
     </row>
   </sheetData>
